--- a/format_message_patient.xlsx
+++ b/format_message_patient.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -433,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
